--- a/Descuentos.xlsx
+++ b/Descuentos.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>DCLI1</t>
+    <t>DCR40</t>
   </si>
   <si>
-    <t>DCR40</t>
+    <t>DCLI1</t>
   </si>
   <si>
     <t>DPOV1</t>

--- a/Descuentos.xlsx
+++ b/Descuentos.xlsx
@@ -12,15 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>DCR40</t>
+    <t>DRFC9</t>
   </si>
   <si>
-    <t>DCLI1</t>
+    <t>DRRPI</t>
   </si>
   <si>
-    <t>DPOV1</t>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>DSMUL</t>
+  </si>
+  <si>
+    <t>DSVO6</t>
+  </si>
+  <si>
+    <t>DCSOA</t>
+  </si>
+  <si>
+    <t>DROPF</t>
+  </si>
+  <si>
+    <t>DWO00</t>
+  </si>
+  <si>
+    <t>DGCZ1</t>
+  </si>
+  <si>
+    <t>DTP75</t>
+  </si>
+  <si>
+    <t>DSPLA</t>
   </si>
 </sst>
 </file>
@@ -65,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,6 +110,46 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Descuentos.xlsx
+++ b/Descuentos.xlsx
@@ -12,39 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>DRFC9</t>
+    <t>DCR40</t>
   </si>
   <si>
-    <t>DRRPI</t>
+    <t>DCLI1</t>
   </si>
   <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
-    <t>DSMUL</t>
-  </si>
-  <si>
-    <t>DSVO6</t>
-  </si>
-  <si>
-    <t>DCSOA</t>
-  </si>
-  <si>
-    <t>DROPF</t>
-  </si>
-  <si>
-    <t>DWO00</t>
-  </si>
-  <si>
-    <t>DGCZ1</t>
-  </si>
-  <si>
-    <t>DTP75</t>
-  </si>
-  <si>
-    <t>DSPLA</t>
+    <t>DPOV1</t>
   </si>
 </sst>
 </file>
@@ -89,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,46 +86,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
